--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1788980.683140286</v>
+        <v>-1793120.389554242</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14035469.37699068</v>
+        <v>14032519.48003859</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>41.63443644198022</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>317.293977867341</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226354</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13.99401015844044</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>112.2117523941608</v>
+        <v>89.21646366593173</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>324.7666532972376</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>50.27744239960779</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>92.75802345392432</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226354</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>62.77563946481551</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>72.11592928725621</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>139.0959532615969</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>262.126739189748</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139.7912902937547</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>145.6238767107354</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
@@ -1379,16 +1379,16 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>27.59772127179605</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
@@ -1430,13 +1430,13 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>108.7885680330192</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>69.40930830407349</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1588,10 +1588,10 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>167.3934724888355</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>316.1500911643377</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372782</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362794</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>140.4199321822763</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.9984695717784</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442478</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681691</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338896</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>47.67393428496634</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901681</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>34.72375104756241</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2081,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954278</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291031</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838873</v>
+        <v>24.17382596574976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828885</v>
+        <v>52.06849973564988</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431717</v>
+        <v>70.5760187316782</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459958</v>
+        <v>55.72314698196061</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643931</v>
+        <v>41.29686219380034</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931842</v>
+        <v>41.22330424667945</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908569</v>
+        <v>42.97275566644672</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147782</v>
+        <v>53.79159358883885</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804986</v>
+        <v>41.14384575541089</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922179</v>
+        <v>18.98356133658282</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367771</v>
+        <v>9.882059701038742</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920503</v>
+        <v>88.00800320656606</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133771</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947756</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="38">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>861.2310716764907</v>
+        <v>456.6551341546188</v>
       </c>
       <c r="C2" t="n">
-        <v>468.0555701794214</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="D2" t="n">
-        <v>468.0555701794214</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="E2" t="n">
-        <v>65.47204529596586</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634768</v>
+        <v>50.62559822793119</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475491</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475491</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>588.4870060424344</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.074736123376</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="N2" t="n">
-        <v>1602.886019760838</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606224</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737746</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023267</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023267</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.289453582684</v>
+        <v>1685.148180317388</v>
       </c>
       <c r="U2" t="n">
-        <v>1913.289453582684</v>
+        <v>1643.093194012358</v>
       </c>
       <c r="V2" t="n">
-        <v>1571.182644286203</v>
+        <v>1643.093194012358</v>
       </c>
       <c r="W2" t="n">
-        <v>1250.683676743434</v>
+        <v>1643.093194012358</v>
       </c>
       <c r="X2" t="n">
-        <v>861.2310716764907</v>
+        <v>1253.640588945414</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.2310716764907</v>
+        <v>857.1498798660157</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>807.6097523431019</v>
+        <v>556.1927859813161</v>
       </c>
       <c r="C3" t="n">
-        <v>656.9555219031942</v>
+        <v>405.5385555414083</v>
       </c>
       <c r="D3" t="n">
-        <v>526.8665545246745</v>
+        <v>275.4495881628886</v>
       </c>
       <c r="E3" t="n">
-        <v>390.4200636355622</v>
+        <v>139.0030972737763</v>
       </c>
       <c r="F3" t="n">
-        <v>265.988257518694</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G3" t="n">
-        <v>145.9284395905585</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H3" t="n">
-        <v>57.6310231911594</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569813</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>846.8008913552947</v>
+        <v>813.5918890426547</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430367</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021348</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734587</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413229</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784296</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917583</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675947</v>
+        <v>887.3033373467701</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431019</v>
+        <v>707.9891204222774</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289.9352891962233</v>
+        <v>288.9468216099632</v>
       </c>
       <c r="C4" t="n">
-        <v>289.9352891962233</v>
+        <v>288.9468216099632</v>
       </c>
       <c r="D4" t="n">
-        <v>289.9352891962233</v>
+        <v>288.9468216099632</v>
       </c>
       <c r="E4" t="n">
-        <v>289.9352891962233</v>
+        <v>288.9468216099632</v>
       </c>
       <c r="F4" t="n">
-        <v>289.9352891962233</v>
+        <v>131.6208868229361</v>
       </c>
       <c r="G4" t="n">
-        <v>289.9352891962233</v>
+        <v>131.6208868229361</v>
       </c>
       <c r="H4" t="n">
-        <v>176.590084757677</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V4" t="n">
-        <v>709.2236301045415</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="W4" t="n">
-        <v>709.2236301045415</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="X4" t="n">
-        <v>475.1433078875245</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="Y4" t="n">
-        <v>475.1433078875245</v>
+        <v>474.1548403012645</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2123.997674384606</v>
+        <v>1647.7168190355</v>
       </c>
       <c r="C5" t="n">
-        <v>2123.997674384606</v>
+        <v>1647.7168190355</v>
       </c>
       <c r="D5" t="n">
-        <v>1738.556545601274</v>
+        <v>1647.7168190355</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.973020717819</v>
+        <v>1245.133294152044</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477962</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357994</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310448</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M5" t="n">
-        <v>1040.448080049574</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572947</v>
+        <v>1562.028895694243</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465275</v>
+        <v>2002.068496586572</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596797</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="V5" t="n">
-        <v>2123.997674384606</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="W5" t="n">
-        <v>2123.997674384606</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="X5" t="n">
-        <v>2123.997674384606</v>
+        <v>1647.7168190355</v>
       </c>
       <c r="Y5" t="n">
-        <v>2123.997674384606</v>
+        <v>1647.7168190355</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021406</v>
+        <v>556.1927859813161</v>
       </c>
       <c r="C6" t="n">
-        <v>655.8134179021406</v>
+        <v>405.5385555414083</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628886</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>139.0030972737763</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>407.9705203262572</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591874</v>
+        <v>921.5731989359451</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182855</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734587</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413229</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784296</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917583</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675947</v>
+        <v>887.3033373467701</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431019</v>
+        <v>707.9891204222774</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>395.6329346883093</v>
+        <v>425.5395450120517</v>
       </c>
       <c r="C7" t="n">
-        <v>395.6329346883093</v>
+        <v>425.5395450120517</v>
       </c>
       <c r="D7" t="n">
-        <v>239.999821590824</v>
+        <v>269.9064319145664</v>
       </c>
       <c r="E7" t="n">
-        <v>176.590084757677</v>
+        <v>114.3476197737689</v>
       </c>
       <c r="F7" t="n">
-        <v>176.590084757677</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G7" t="n">
-        <v>176.590084757677</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H7" t="n">
-        <v>176.590084757677</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>678.9633367571316</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>395.6329346883093</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X7" t="n">
-        <v>395.6329346883093</v>
+        <v>425.5395450120517</v>
       </c>
       <c r="Y7" t="n">
-        <v>395.6329346883093</v>
+        <v>425.5395450120517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1427.641169275121</v>
+        <v>209.7903188932565</v>
       </c>
       <c r="C8" t="n">
-        <v>1034.465667778052</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D8" t="n">
-        <v>649.0245389947197</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>649.0245389947197</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>636.1705045651015</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1590.266290800943</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>2030.305891693271</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2199.134950018231</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V8" t="n">
-        <v>2199.134950018231</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.135914986518</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X8" t="n">
-        <v>1828.135914986518</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="Y8" t="n">
-        <v>1828.135914986518</v>
+        <v>610.2850646046534</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>850.6182020620834</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>573.476346897034</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>403.2712289630232</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>403.2712289630232</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>403.2712289630232</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>245.9452941759961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
         <v>77.69124027544166</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X10" t="n">
-        <v>714.6796704260792</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.6796704260792</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1463.714265689663</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C11" t="n">
-        <v>1142.335039338787</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D11" t="n">
-        <v>828.6901857016487</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>497.9029359643871</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5078,13 +5078,13 @@
         <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2295.380346971541</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2295.380346971541</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.714265689663</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>137.1794355089966</v>
       </c>
       <c r="K12" t="n">
-        <v>346.9752758473783</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="L12" t="n">
-        <v>830.5413617456916</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.0952099420617</v>
+        <v>329.7399060250779</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542447</v>
+        <v>231.3310632372609</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029534</v>
+        <v>231.3310632372609</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083498</v>
+        <v>231.3310632372609</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675167</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581892</v>
@@ -5206,10 +5206,10 @@
         <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814507</v>
+        <v>1426.622229386151</v>
       </c>
       <c r="T13" t="n">
-        <v>1496.732641814507</v>
+        <v>1262.699452700579</v>
       </c>
       <c r="U13" t="n">
-        <v>1283.090125202602</v>
+        <v>1049.056936088674</v>
       </c>
       <c r="V13" t="n">
-        <v>1088.90705516962</v>
+        <v>854.8738660556921</v>
       </c>
       <c r="W13" t="n">
-        <v>919.8227395243318</v>
+        <v>643.3397391330636</v>
       </c>
       <c r="X13" t="n">
-        <v>919.8227395243318</v>
+        <v>481.0556920622406</v>
       </c>
       <c r="Y13" t="n">
-        <v>768.5069534871691</v>
+        <v>329.7399060250779</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1758.912988943184</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1437.533762592309</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1123.88890895517</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E14" t="n">
-        <v>793.1016592179087</v>
+        <v>748.583771393747</v>
       </c>
       <c r="F14" t="n">
-        <v>448.0034958940805</v>
+        <v>403.4856080699187</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998632</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X14" t="n">
-        <v>2087.611459508387</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>2087.611459508387</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>658.8001958221562</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>459.7811691196466</v>
+        <v>474.9551552953889</v>
       </c>
       <c r="C16" t="n">
-        <v>459.7811691196466</v>
+        <v>376.5463125075719</v>
       </c>
       <c r="D16" t="n">
-        <v>375.9443311683552</v>
+        <v>292.7094745562806</v>
       </c>
       <c r="E16" t="n">
-        <v>375.9443311683552</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="F16" t="n">
-        <v>290.4146715275222</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G16" t="n">
-        <v>193.9568927731618</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>110.2746168808496</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138163</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>936.042825624545</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>936.042825624545</v>
+        <v>872.8795642628193</v>
       </c>
       <c r="W16" t="n">
-        <v>724.5086987019166</v>
+        <v>661.3454373401908</v>
       </c>
       <c r="X16" t="n">
-        <v>724.5086987019166</v>
+        <v>626.2709413325516</v>
       </c>
       <c r="Y16" t="n">
-        <v>573.1929126647539</v>
+        <v>474.9551552953889</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924233</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5534,28 +5534,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443166</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>175.2341099238429</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L18" t="n">
-        <v>658.8001958221562</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M18" t="n">
-        <v>1286.571845448837</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N18" t="n">
-        <v>1942.349816659396</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462926</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,43 +5680,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>621.3883893133159</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>804.578023344525</v>
+        <v>683.1426636655156</v>
       </c>
       <c r="O19" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5753,16 +5753,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,31 +5771,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222427</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960425</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567349</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879441</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,28 +6011,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6075,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446711</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184709</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567349</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879441</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,58 +6218,58 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377455</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.58288023855</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6361,43 +6361,43 @@
         <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>3135.209895105042</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3483.397387236564</v>
       </c>
       <c r="Q29" t="n">
         <v>3668.242947377513</v>
@@ -6540,19 +6540,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.898782305709</v>
+        <v>601.3807258108108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.474102218932</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1690.805456896586</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.758573419138</v>
+        <v>2330.268861109031</v>
       </c>
       <c r="O32" t="n">
-        <v>2733.798174311467</v>
+        <v>2770.30846200136</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170059</v>
+        <v>3118.495954132882</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038078</v>
+        <v>3303.34151427383</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038078</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908493</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397274</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761238</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394121</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291773</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154195</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004161</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K33" t="n">
-        <v>182.6625304604889</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>666.2286163588021</v>
+        <v>601.612278089031</v>
       </c>
       <c r="M33" t="n">
-        <v>1294.000265985483</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1949.778237196042</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1949.778237196042</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965116</v>
+        <v>365.671367692971</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918655</v>
+        <v>309.3853606404856</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823745</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123123</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.14288975465</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834602</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431892</v>
+        <v>86.73045008374187</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803363</v>
+        <v>231.2685546898324</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812065</v>
+        <v>501.1958531658785</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465409</v>
+        <v>799.1395520791255</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>1093.981306685318</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872941</v>
+        <v>1256.686073727026</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.69141937659</v>
+        <v>1376.562239503604</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308582</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420496</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518095</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250175</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395497</v>
+        <v>835.7257283273671</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000921</v>
+        <v>666.3144371400699</v>
       </c>
       <c r="X34" t="n">
-        <v>606.72257001244</v>
+        <v>546.1532258045784</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584481</v>
+        <v>436.960275502747</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
@@ -6929,7 +6929,7 @@
         <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,22 +6962,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7108,37 +7108,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
         <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="38">
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7342,16 +7342,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>806.619390679759</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214671</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P40" t="n">
         <v>1089.200323498046</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7388,19 +7388,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7448,7 +7448,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7567,28 +7567,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7807,25 +7807,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>197.0376953363563</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321637</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>375.5329867628701</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>383.8240476937594</v>
       </c>
       <c r="N3" t="n">
-        <v>495.3119381825225</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>312.0096393411912</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>224.133610099864</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>462.5560852512501</v>
       </c>
       <c r="N6" t="n">
-        <v>554.040518931795</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>369.9375821741921</v>
       </c>
       <c r="P8" t="n">
-        <v>489.0313597499241</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,16 +8532,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>422.8212561536984</v>
       </c>
       <c r="N9" t="n">
-        <v>447.5171231095482</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>158.2629500655365</v>
       </c>
       <c r="K12" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,19 +9006,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
-        <v>656.2283997181323</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294519</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>298.4852906721864</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263905</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,25 +10425,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>306.5431715280894</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>292.8810966026122</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10841,7 +10841,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>314.049460418794</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>187.4221642536443</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>60.30030228047067</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>42.02531316456673</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>21.80272439780716</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>155.7908001043871</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993867</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465751</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>13.01123442959454</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>125.9374555525524</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1226507.665431459</v>
+        <v>1225003.796397059</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1226507.665431459</v>
+        <v>1225003.796397059</v>
       </c>
     </row>
     <row r="4">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90166.08904667837</v>
+        <v>90166.08904667842</v>
       </c>
       <c r="C2" t="n">
-        <v>90166.08904667837</v>
+        <v>90166.0890466784</v>
       </c>
       <c r="D2" t="n">
-        <v>90166.08904667839</v>
+        <v>90166.0890466784</v>
       </c>
       <c r="E2" t="n">
         <v>79679.51171220037</v>
@@ -26326,34 +26326,34 @@
         <v>79679.51171220039</v>
       </c>
       <c r="G2" t="n">
+        <v>90166.08904667848</v>
+      </c>
+      <c r="H2" t="n">
         <v>90166.08904667843</v>
       </c>
-      <c r="H2" t="n">
-        <v>90166.08904667846</v>
-      </c>
       <c r="I2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.08904667845</v>
       </c>
       <c r="J2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.0890466784</v>
       </c>
       <c r="K2" t="n">
         <v>90166.0890466784</v>
       </c>
       <c r="L2" t="n">
-        <v>90166.08904667856</v>
+        <v>90166.08904667846</v>
       </c>
       <c r="M2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.08904667846</v>
       </c>
       <c r="N2" t="n">
-        <v>90166.08904667842</v>
+        <v>90166.08904667845</v>
       </c>
       <c r="O2" t="n">
         <v>90166.08904667845</v>
       </c>
       <c r="P2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.08904667845</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918556</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062215</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668188</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945023</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728564</v>
+        <v>62456.24177539677</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081111</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277119</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489513</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489513</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
+        <v>138605.9604845214</v>
+      </c>
+      <c r="F4" t="n">
         <v>138605.9604845213</v>
       </c>
-      <c r="F4" t="n">
-        <v>138605.9604845214</v>
-      </c>
       <c r="G4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="I4" t="n">
         <v>186364.8769761036</v>
@@ -26445,10 +26445,10 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
         <v>186364.8769761036</v>
@@ -26457,7 +26457,7 @@
         <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-380277.7714341423</v>
+        <v>-375625.5518129674</v>
       </c>
       <c r="C6" t="n">
-        <v>-198072.8231422866</v>
+        <v>-201766.8947789124</v>
       </c>
       <c r="D6" t="n">
-        <v>-205817.4038459072</v>
+        <v>-213553.6930692986</v>
       </c>
       <c r="E6" t="n">
-        <v>-224235.029946206</v>
+        <v>-224444.7614928957</v>
       </c>
       <c r="F6" t="n">
-        <v>-112112.4684721616</v>
+        <v>-112322.200018851</v>
       </c>
       <c r="G6" t="n">
-        <v>-201793.8827816267</v>
+        <v>-201793.8827816266</v>
       </c>
       <c r="H6" t="n">
+        <v>-154368.5572449447</v>
+      </c>
+      <c r="I6" t="n">
         <v>-154368.5572449448</v>
       </c>
-      <c r="I6" t="n">
-        <v>-154368.5572449449</v>
-      </c>
       <c r="J6" t="n">
-        <v>-367410.47484223</v>
+        <v>-360894.1896876571</v>
       </c>
       <c r="K6" t="n">
-        <v>-160608.3256477278</v>
+        <v>-160608.3256477277</v>
       </c>
       <c r="L6" t="n">
-        <v>-215790.9145823488</v>
+        <v>-219839.7517928211</v>
       </c>
       <c r="M6" t="n">
-        <v>-196569.3867045678</v>
+        <v>-197621.0817157558</v>
       </c>
       <c r="N6" t="n">
         <v>-154368.5572449449</v>
       </c>
       <c r="O6" t="n">
-        <v>-182136.2512877159</v>
+        <v>-182136.251287716</v>
       </c>
       <c r="P6" t="n">
-        <v>-154368.5572449448</v>
+        <v>-154368.5572449447</v>
       </c>
     </row>
   </sheetData>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>71.07831239473195</v>
+      </c>
+      <c r="F2" t="n">
         <v>71.07831239473194</v>
       </c>
-      <c r="F2" t="n">
-        <v>71.078312394732</v>
-      </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,22 +26802,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="H4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="H4" t="n">
-        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095195</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346411</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660705</v>
+        <v>78.07030221924596</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551326</v>
+        <v>17.58004954287424</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773703</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407339</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346411</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>211.5607658277671</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>49.99506681405444</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343598</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>34.89937128976707</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>41.71201313396018</v>
+        <v>64.70730186218923</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27585,22 +27585,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27619,13 +27619,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>87.95884078808439</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27673,13 +27673,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>288.408298803909</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>36.03005425081014</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343598</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>91.22758455457401</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>83.63674615190057</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27831,13 +27831,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>250.1477932205018</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>146.9043887671288</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.56464821063355</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28020,10 +28020,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28059,22 +28059,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>117.6956750166486</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28752,13 +28752,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.636002634530428</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,40 +28956,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634530584</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733512</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>35.71049010668963</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2979821082773</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901124</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431675</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29545,16 +29545,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599527</v>
       </c>
       <c r="P29" t="n">
-        <v>86.65052755599538</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>37.61298457733328</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000711</v>
+        <v>81.1080814089313</v>
       </c>
       <c r="N32" t="n">
-        <v>48.65992738832836</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000711</v>
+        <v>106.868342022471</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861253756</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30180,37 +30180,37 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>128.2979821082793</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634528316</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30651,19 +30651,19 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,28 +30879,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>43.78952560586463</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>225.9691493387737</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>291.4369256444475</v>
       </c>
       <c r="N3" t="n">
-        <v>409.9398253283558</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N5" t="n">
-        <v>162.8911480034072</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>73.83216285893882</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>370.1689632019382</v>
       </c>
       <c r="N6" t="n">
-        <v>468.6684060776283</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>220.3737447500957</v>
       </c>
       <c r="P8" t="n">
-        <v>338.7299125089989</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>330.4341341043865</v>
       </c>
       <c r="N9" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>75.81849273220313</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
-        <v>570.8562868639657</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257292</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488448</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>205.7977317832975</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,13 +36048,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>316.4712935610694</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094892</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317805</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032134056</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.837363033884704e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434252</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934996</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>131.7547461184298</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047975</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271087</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36841,16 +36841,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>531.1349729017816</v>
       </c>
       <c r="P29" t="n">
-        <v>438.3550650625831</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>249.7698920375016</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511626</v>
+        <v>632.6241420600228</v>
       </c>
       <c r="N32" t="n">
-        <v>581.8026381332395</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066588</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111302</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537678</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>216.4828246711712</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>205.7977317832975</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791203</v>
+        <v>82.705432300551</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220911</v>
+        <v>272.653836844491</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750299</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496164</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380293</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634530472</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680799</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37947,7 +37947,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133907</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
